--- a/teaching/traditional_assets/database/data/mexico/mexico_investments_asset_management.xlsx
+++ b/teaching/traditional_assets/database/data/mexico/mexico_investments_asset_management.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ6"/>
+  <dimension ref="A1:AQ4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,121 +591,97 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.008499999999999994</v>
-      </c>
-      <c r="E2">
-        <v>0.119</v>
+        <v>-0.22</v>
       </c>
       <c r="G2">
-        <v>0.1574092844111089</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.1574092844111089</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.1692225826069329</v>
+        <v>-0.007459459459459459</v>
       </c>
       <c r="J2">
-        <v>0.1453794465207037</v>
+        <v>-0.007459459459459459</v>
       </c>
       <c r="K2">
-        <v>92.407</v>
+        <v>-22.37</v>
       </c>
       <c r="L2">
-        <v>0.09366207176160551</v>
+        <v>-0.4030630630630631</v>
       </c>
       <c r="M2">
-        <v>127.8</v>
+        <v>8.73</v>
       </c>
       <c r="N2">
-        <v>0.07029316319234366</v>
+        <v>0.01164621131270011</v>
       </c>
       <c r="O2">
-        <v>1.383012109472226</v>
+        <v>-0.3902548055431381</v>
       </c>
       <c r="P2">
-        <v>88.7</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.04878719542379407</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.9598839914725076</v>
+        <v>-0</v>
       </c>
       <c r="S2">
-        <v>39.09999999999999</v>
+        <v>8.73</v>
       </c>
       <c r="T2">
-        <v>0.3059467918622847</v>
+        <v>1</v>
       </c>
       <c r="U2">
-        <v>71.22500000000001</v>
+        <v>20.866</v>
       </c>
       <c r="V2">
-        <v>0.03917551289808042</v>
-      </c>
-      <c r="W2">
-        <v>0.1097134559182003</v>
+        <v>0.02783617929562433</v>
       </c>
       <c r="X2">
-        <v>0.05507255993511411</v>
-      </c>
-      <c r="Y2">
-        <v>0.05464089598308617</v>
+        <v>0.04694671811104204</v>
       </c>
       <c r="Z2">
-        <v>0.6350714439281994</v>
-      </c>
-      <c r="AA2">
-        <v>-0.0552237288946286</v>
+        <v>0.05473102904196046</v>
       </c>
       <c r="AB2">
-        <v>0.05438470903680497</v>
-      </c>
-      <c r="AC2">
-        <v>-0.1104092233215504</v>
+        <v>0.04492429912271993</v>
       </c>
       <c r="AD2">
-        <v>683.107</v>
+        <v>192.1</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>683.107</v>
+        <v>192.1</v>
       </c>
       <c r="AG2">
-        <v>611.8819999999999</v>
+        <v>171.234</v>
       </c>
       <c r="AH2">
-        <v>0.2731109420371844</v>
+        <v>0.203992779016672</v>
       </c>
       <c r="AI2">
-        <v>0.4396343947478676</v>
+        <v>0.3306368330464716</v>
       </c>
       <c r="AJ2">
-        <v>0.2518051574044581</v>
+        <v>0.1859553404848213</v>
       </c>
       <c r="AK2">
-        <v>0.4127137655792394</v>
+        <v>0.3057018499144847</v>
       </c>
       <c r="AL2">
-        <v>5.03</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>1.02</v>
-      </c>
-      <c r="AN2">
-        <v>3.792931704608551</v>
-      </c>
-      <c r="AO2">
-        <v>33.19184890656064</v>
-      </c>
-      <c r="AP2">
-        <v>3.397456968350916</v>
+        <v>-0.199</v>
       </c>
       <c r="AQ2">
-        <v>163.6813725490196</v>
+        <v>2.080402010050251</v>
       </c>
     </row>
     <row r="3">
@@ -716,7 +692,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Grupo Profuturo, S.A.B. de C.V. (BMV:GPROFUT *)</t>
+          <t>Corporativo GBM, S.A.B. de C.V. (BMV:GBM O)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -725,121 +701,106 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.155</v>
-      </c>
-      <c r="E3">
-        <v>0.119</v>
+        <v>-0.22</v>
       </c>
       <c r="G3">
-        <v>0.1684747233673248</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.1684747233673248</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.1832284660446952</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1316919664433502</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>117.7</v>
+        <v>-22.1</v>
       </c>
       <c r="L3">
-        <v>0.1276849642004773</v>
+        <v>-0.3981981981981982</v>
       </c>
       <c r="M3">
-        <v>65.90000000000001</v>
+        <v>8.73</v>
       </c>
       <c r="N3">
-        <v>0.06326197561678026</v>
+        <v>0.01206300953433743</v>
       </c>
       <c r="O3">
-        <v>0.5598980458793543</v>
+        <v>-0.3950226244343891</v>
       </c>
       <c r="P3">
-        <v>65.90000000000001</v>
+        <v>-0</v>
       </c>
       <c r="Q3">
-        <v>0.06326197561678026</v>
+        <v>-0</v>
       </c>
       <c r="R3">
-        <v>0.5598980458793543</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>8.73</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U3">
-        <v>61.6</v>
+        <v>20.7</v>
       </c>
       <c r="V3">
-        <v>0.05913410770855333</v>
+        <v>0.0286030122979135</v>
       </c>
       <c r="W3">
-        <v>0.2736572890025575</v>
+        <v>-0.05508474576271187</v>
       </c>
       <c r="X3">
-        <v>0.05568521957768365</v>
+        <v>0.05014695212799149</v>
       </c>
       <c r="Y3">
-        <v>0.2179720694248739</v>
+        <v>-0.1052316978907034</v>
       </c>
       <c r="Z3">
-        <v>2.103125712981976</v>
+        <v>0.05473102904196046</v>
       </c>
       <c r="AA3">
-        <v>0.2769647608201692</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.05447607885130212</v>
+        <v>0.04610211415134726</v>
       </c>
       <c r="AC3">
-        <v>0.2224886819688671</v>
+        <v>-0.04610211415134726</v>
       </c>
       <c r="AD3">
-        <v>60.4</v>
+        <v>192.1</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>60.4</v>
+        <v>192.1</v>
       </c>
       <c r="AG3">
-        <v>-1.200000000000003</v>
+        <v>171.4</v>
       </c>
       <c r="AH3">
-        <v>0.05480446420470011</v>
+        <v>0.2097619567591177</v>
       </c>
       <c r="AI3">
-        <v>0.1161761877284093</v>
+        <v>0.3335069444444445</v>
       </c>
       <c r="AJ3">
-        <v>-0.001153291686689095</v>
+        <v>0.1914869846944476</v>
       </c>
       <c r="AK3">
-        <v>-0.002618372245254207</v>
+        <v>0.308661984512876</v>
       </c>
       <c r="AL3">
-        <v>5.03</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>5.03</v>
-      </c>
-      <c r="AN3">
-        <v>0.3353692393114936</v>
-      </c>
-      <c r="AO3">
-        <v>33.57852882703777</v>
-      </c>
-      <c r="AP3">
-        <v>-0.006662965019433664</v>
-      </c>
-      <c r="AQ3">
-        <v>33.57852882703777</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -850,7 +811,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Corporativo GBM, S.A.B. de C.V. (BMV:GBM O)</t>
+          <t>LIV Capital Acquisition Corp. (NasdaqCM:LIVK)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -858,312 +819,74 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="D4">
-        <v>-0.172</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
       <c r="K4">
-        <v>-26.6</v>
-      </c>
-      <c r="L4">
-        <v>-0.4104938271604939</v>
+        <v>-0.27</v>
       </c>
       <c r="M4">
-        <v>38.3</v>
+        <v>-0</v>
       </c>
       <c r="N4">
-        <v>0.05349909205196256</v>
+        <v>-0</v>
       </c>
       <c r="O4">
-        <v>-1.43984962406015</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>22.8</v>
+        <v>-0</v>
       </c>
       <c r="Q4">
-        <v>0.03184802346696466</v>
+        <v>-0</v>
       </c>
       <c r="R4">
-        <v>-0.8571428571428571</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>15.5</v>
-      </c>
-      <c r="T4">
-        <v>0.4046997389033942</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>9.550000000000001</v>
+        <v>0.166</v>
       </c>
       <c r="V4">
-        <v>0.01333985193462774</v>
-      </c>
-      <c r="W4">
-        <v>-0.05423037716615699</v>
+        <v>0.00640926640926641</v>
       </c>
       <c r="X4">
-        <v>0.07560013070066013</v>
-      </c>
-      <c r="Y4">
-        <v>-0.1298305078668171</v>
-      </c>
-      <c r="Z4">
-        <v>0.05835472105903012</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
+        <v>0.0437464840940926</v>
       </c>
       <c r="AB4">
-        <v>0.05607764963153586</v>
-      </c>
-      <c r="AC4">
-        <v>-0.05607764963153586</v>
+        <v>0.0437464840940926</v>
       </c>
       <c r="AD4">
-        <v>622.4</v>
+        <v>0</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>622.4</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>612.85</v>
+        <v>-0.166</v>
       </c>
       <c r="AH4">
-        <v>0.4650676231039378</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.6080500195388824</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.4612229539040452</v>
+        <v>-0.00645061008782156</v>
       </c>
       <c r="AK4">
-        <v>0.6043587594300084</v>
+        <v>-0.03434009102192801</v>
       </c>
       <c r="AL4">
         <v>0</v>
       </c>
       <c r="AM4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Mexico</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Opes Acquisition Corp. (NasdaqCM:OPES)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Investments &amp; Asset Management</t>
-        </is>
-      </c>
-      <c r="K5">
-        <v>1.42</v>
-      </c>
-      <c r="M5">
-        <v>23.6</v>
-      </c>
-      <c r="N5">
-        <v>0.6194225721784777</v>
-      </c>
-      <c r="O5">
-        <v>16.61971830985916</v>
-      </c>
-      <c r="P5">
-        <v>-0</v>
-      </c>
-      <c r="Q5">
-        <v>-0</v>
-      </c>
-      <c r="R5">
-        <v>-0</v>
-      </c>
-      <c r="S5">
-        <v>23.6</v>
-      </c>
-      <c r="T5">
-        <v>1</v>
-      </c>
-      <c r="U5">
-        <v>0.014</v>
-      </c>
-      <c r="V5">
-        <v>0.0003674540682414698</v>
-      </c>
-      <c r="W5">
-        <v>0.284</v>
-      </c>
-      <c r="X5">
-        <v>0.05445990029254458</v>
-      </c>
-      <c r="Y5">
-        <v>0.2295400997074554</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>-0.1104474577892572</v>
-      </c>
-      <c r="AB5">
-        <v>0.05429333922230781</v>
-      </c>
-      <c r="AC5">
-        <v>-0.164740797011565</v>
-      </c>
-      <c r="AD5">
-        <v>0.307</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>0.307</v>
-      </c>
-      <c r="AG5">
-        <v>0.293</v>
-      </c>
-      <c r="AH5">
-        <v>0.007993334548389616</v>
-      </c>
-      <c r="AI5">
-        <v>0.05784812511776898</v>
-      </c>
-      <c r="AJ5">
-        <v>0.007631599510327403</v>
-      </c>
-      <c r="AK5">
-        <v>0.0553561307387115</v>
-      </c>
-      <c r="AL5">
-        <v>0</v>
-      </c>
-      <c r="AM5">
-        <v>-2.69</v>
-      </c>
-      <c r="AQ5">
-        <v>0.2657992565055762</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Mexico</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>DD3 Acquisition Corp. (NasdaqCM:DDMX)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Investments &amp; Asset Management</t>
-        </is>
-      </c>
-      <c r="K6">
-        <v>-0.113</v>
-      </c>
-      <c r="M6">
-        <v>-0</v>
-      </c>
-      <c r="N6">
-        <v>-0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>-0</v>
-      </c>
-      <c r="Q6">
-        <v>-0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0.061</v>
-      </c>
-      <c r="V6">
-        <v>0.002723214285714286</v>
-      </c>
-      <c r="W6">
-        <v>-5.38095238095238</v>
-      </c>
-      <c r="X6">
-        <v>0.05426213512617672</v>
-      </c>
-      <c r="Y6">
-        <v>-5.435214516078557</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>-9.461538461538462</v>
-      </c>
-      <c r="AB6">
-        <v>0.05426213512617672</v>
-      </c>
-      <c r="AC6">
-        <v>-9.515800596664638</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6">
-        <v>-0.061</v>
-      </c>
-      <c r="AH6">
-        <v>0</v>
-      </c>
-      <c r="AI6">
-        <v>0</v>
-      </c>
-      <c r="AJ6">
-        <v>-0.002730650431979946</v>
-      </c>
-      <c r="AK6">
-        <v>-0.01235067827495444</v>
-      </c>
-      <c r="AL6">
-        <v>0</v>
-      </c>
-      <c r="AM6">
-        <v>-1.32</v>
-      </c>
-      <c r="AQ6">
-        <v>0.9318181818181818</v>
+        <v>-0.199</v>
+      </c>
+      <c r="AQ4">
+        <v>2.080402010050251</v>
       </c>
     </row>
   </sheetData>
